--- a/artfynd/A 29317-2023.xlsx
+++ b/artfynd/A 29317-2023.xlsx
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>562929.9522498255</v>
+        <v>562930</v>
       </c>
       <c r="R2" t="n">
-        <v>7196792.398332743</v>
+        <v>7196792</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>

--- a/artfynd/A 29317-2023.xlsx
+++ b/artfynd/A 29317-2023.xlsx
@@ -683,7 +683,7 @@
         <v>112013508</v>
       </c>
       <c r="B2" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
